--- a/testdoc/测试用户数据1.xlsx
+++ b/testdoc/测试用户数据1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newworkdoc\code\personnel\data-cleaning-tool\testdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EE4EC9F-E2A8-4575-870F-71FC8BAE82B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689407BD-CAC1-4FA9-A1BF-583A70A60CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{0B49F71D-757B-4034-A85C-EBBA88352F17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21820" windowHeight="13680" xr2:uid="{0B49F71D-757B-4034-A85C-EBBA88352F17}"/>
   </bookViews>
   <sheets>
     <sheet name="user100" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>姓名</t>
   </si>
@@ -673,38 +673,7 @@
     <t>福建省福州市晋安区福新中路89号</t>
   </si>
   <si>
-    <t>李·雷</t>
-  </si>
-  <si>
-    <t>133 6666 7777</t>
-  </si>
-  <si>
-    <t>台湾省台北市信义区信义路五段7号</t>
-  </si>
-  <si>
-    <t>韩梅梅</t>
-  </si>
-  <si>
-    <t>香港特别行政区中西区皇后大道中181号新纪元广场</t>
-  </si>
-  <si>
-    <t>2022.12.31</t>
-  </si>
-  <si>
-    <t>欧阳 锋</t>
-  </si>
-  <si>
-    <t>139-1234-5678</t>
-  </si>
-  <si>
-    <t>澳门特别行政区大堂区殷皇子大马路43-53号</t>
-  </si>
-  <si>
     <t>86-139-B51234-5678</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>137a88888888</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1298,14 +1267,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1663,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA995F2-C687-41F6-868C-1F14705E59D8}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1708,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1721,8 +1687,8 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>227</v>
+      <c r="B4">
+        <v>13788888888</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3031,48 +2997,6 @@
       </c>
       <c r="D97" s="1">
         <v>44351</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>217</v>
-      </c>
-      <c r="B98" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="2">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99">
-        <v>8613800000000</v>
-      </c>
-      <c r="C99" t="s">
-        <v>221</v>
-      </c>
-      <c r="D99" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>223</v>
-      </c>
-      <c r="B100" t="s">
-        <v>224</v>
-      </c>
-      <c r="C100" t="s">
-        <v>225</v>
-      </c>
-      <c r="D100" s="1">
-        <v>44416</v>
       </c>
     </row>
   </sheetData>
